--- a/bin/com/SpiceTG/TestDataFiles/testNData.xlsx
+++ b/bin/com/SpiceTG/TestDataFiles/testNData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Username</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>spice_12345</t>
+  </si>
+  <si>
+    <t>Login Status</t>
+  </si>
+  <si>
+    <t>UserName</t>
   </si>
 </sst>
 </file>
@@ -173,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -187,6 +193,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -482,16 +491,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
@@ -499,176 +508,57 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="A3" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
